--- a/biology/Zoologie/Dione_juno/Dione_juno.xlsx
+++ b/biology/Zoologie/Dione_juno/Dione_juno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dione juno est une espèce de lépidoptères appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Dione.
 </t>
@@ -511,52 +523,52 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dione juno a été décrit par Pieter Cramer en 1779 sous le nom de Papilio juno[1].
-Sous-espèces
-Dione juno juno présent à la Martinique, Sainte-Lucie, Saint-Vincent, en Guyane, en Guyana, au Surinam
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dione juno a été décrit par Pieter Cramer en 1779 sous le nom de Papilio juno.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dione_juno</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dione_juno</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dione juno juno présent à la Martinique, Sainte-Lucie, Saint-Vincent, en Guyane, en Guyana, au Surinam
 Dione juno andicola (Bates, 1864); présent en Équateur.
 Dione juno huascuma (Reakirt, 1866); présent au Mexique.
 Dione juno miraculosa Hering, 1926; présent au Pérou, parfois considéré comme une espèce, Dione miraculosa.
-Dione juno suffumata Brown &amp; Mielke, 1972; présent au Paraguay[1],[2].
-Noms vernaculaires
-Dione juno se nomme Flambeau argenté en français et Juno Longwing ou Juno Silverspot en anglais[3],[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dione_juno</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dione_juno</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon au dessus orange bordé de marron avec les veines en partie soulignées de marron.
-Le revers des antérieures présente une base orange. L'apex et la totalité des ailes postérieures sont tachés de blanc et de marron avec des veines marron.
-Chenille
-Son corps est jaune avec des taches orange, des scolis noirs et sa tête est noire[5].
-</t>
+Dione juno suffumata Brown &amp; Mielke, 1972; présent au Paraguay,.</t>
         </is>
       </c>
     </row>
@@ -581,13 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae, Passiflora alata, Passiflora edulis, Passiflora laurifolia, Passiflora platyloba et Passiflora serrato-digitata, Passiflora vitifolia[1],[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dione juno se nomme Flambeau argenté en français et Juno Longwing ou Juno Silverspot en anglais,.
 </t>
         </is>
       </c>
@@ -613,14 +630,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon au dessus orange bordé de marron avec les veines en partie soulignées de marron.
+Le revers des antérieures présente une base orange. L'apex et la totalité des ailes postérieures sont tachés de blanc et de marron avec des veines marron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dione_juno</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dione_juno</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son corps est jaune avec des taches orange, des scolis noirs et sa tête est noire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dione_juno</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dione_juno</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae, Passiflora alata, Passiflora edulis, Passiflora laurifolia, Passiflora platyloba et Passiflora serrato-digitata, Passiflora vitifolia,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dione_juno</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dione_juno</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside à la Martinique, Sainte-Lucie, Saint-Vincent, aux Grenadines, au Mexique, au Paraguay, en Guyane, en Guyana, au Surinam,  au Venezuela, en Équateur, en Argentine et au Pérou[1].
-Biotope
-Son habitat est la forêt jusqu'à 1200 mètres d'altitude[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside à la Martinique, Sainte-Lucie, Saint-Vincent, aux Grenadines, au Mexique, au Paraguay, en Guyane, en Guyana, au Surinam,  au Venezuela, en Équateur, en Argentine et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dione_juno</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dione_juno</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la forêt jusqu'à 1200 mètres d'altitude.
 </t>
         </is>
       </c>
